--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="13940" activeTab="1"/>
+    <workbookView windowWidth="29120" windowHeight="13940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
-    <sheet name="shift" sheetId="2" r:id="rId2"/>
+    <sheet name="prefix-shift" sheetId="2" r:id="rId2"/>
+    <sheet name="suffix" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>English</t>
   </si>
@@ -36,16 +37,34 @@
     <t>French</t>
   </si>
   <si>
-    <t>prefix</t>
-  </si>
-  <si>
     <t>per-</t>
   </si>
   <si>
     <t>par-</t>
   </si>
   <si>
-    <t>suffix</t>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>parfum</t>
+  </si>
+  <si>
+    <t>pre-</t>
+  </si>
+  <si>
+    <t>pré-</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>préparer</t>
+  </si>
+  <si>
+    <t>Speech</t>
+  </si>
+  <si>
+    <t>adjective</t>
   </si>
   <si>
     <t>-al</t>
@@ -54,19 +73,193 @@
     <t>-el</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>perfume</t>
-  </si>
-  <si>
-    <t>parfum</t>
-  </si>
-  <si>
     <t>natural</t>
   </si>
   <si>
     <t>naturel</t>
+  </si>
+  <si>
+    <t>-ous</t>
+  </si>
+  <si>
+    <t>-eux</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>dangereux</t>
+  </si>
+  <si>
+    <t>-ose</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>verbeux</t>
+  </si>
+  <si>
+    <t>-ic</t>
+  </si>
+  <si>
+    <t>-ique</t>
+  </si>
+  <si>
+    <t>historic</t>
+  </si>
+  <si>
+    <t>historique</t>
+  </si>
+  <si>
+    <t>-id</t>
+  </si>
+  <si>
+    <t>-ide</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>fluide</t>
+  </si>
+  <si>
+    <t>noun</t>
+  </si>
+  <si>
+    <t>-or</t>
+  </si>
+  <si>
+    <t>-eur</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>acteur</t>
+  </si>
+  <si>
+    <t>-ity</t>
+  </si>
+  <si>
+    <t>-ité</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>possibilité</t>
+  </si>
+  <si>
+    <t>-mony</t>
+  </si>
+  <si>
+    <t>-monie</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>harmonie</t>
+  </si>
+  <si>
+    <t>-ology</t>
+  </si>
+  <si>
+    <t>-ologie</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>biologie</t>
+  </si>
+  <si>
+    <t>-graphy</t>
+  </si>
+  <si>
+    <t>-graphie</t>
+  </si>
+  <si>
+    <t>photography</t>
+  </si>
+  <si>
+    <t>photographie</t>
+  </si>
+  <si>
+    <t>-ary</t>
+  </si>
+  <si>
+    <t>-aire</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>dictionaire</t>
+  </si>
+  <si>
+    <t>-ory</t>
+  </si>
+  <si>
+    <t>-oire</t>
+  </si>
+  <si>
+    <t>directory</t>
+  </si>
+  <si>
+    <t>directoire</t>
+  </si>
+  <si>
+    <t>-ist</t>
+  </si>
+  <si>
+    <t>-iste</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>-ism</t>
+  </si>
+  <si>
+    <t>-isme</t>
+  </si>
+  <si>
+    <t>capitalism</t>
+  </si>
+  <si>
+    <t>capitalisme</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
+    <t>-ify</t>
+  </si>
+  <si>
+    <t>-ifier</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t>simplifier</t>
+  </si>
+  <si>
+    <t>-ize</t>
+  </si>
+  <si>
+    <t>-iser</t>
+  </si>
+  <si>
+    <t>organize</t>
+  </si>
+  <si>
+    <t>organiser</t>
   </si>
 </sst>
 </file>
@@ -682,18 +875,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1244,86 +1440,355 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="1"/>
-    <col min="2" max="2" width="12.3846153846154" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.23076923076923" style="1"/>
-    <col min="5" max="5" width="10.3076923076923"/>
+    <col min="1" max="1" width="12.3846153846154" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="3"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="8.46153846153846" customWidth="1"/>
+    <col min="3" max="3" width="9.07692307692308" customWidth="1"/>
+    <col min="4" max="4" width="13.2307692307692" customWidth="1"/>
+    <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
   <si>
     <t>English</t>
   </si>
@@ -61,6 +61,30 @@
     <t>préparer</t>
   </si>
   <si>
+    <t>re-</t>
+  </si>
+  <si>
+    <t>ré-</t>
+  </si>
+  <si>
+    <t>reactivate</t>
+  </si>
+  <si>
+    <t>réactiver</t>
+  </si>
+  <si>
+    <t>dis-</t>
+  </si>
+  <si>
+    <t>dés-</t>
+  </si>
+  <si>
+    <t>disagreeable</t>
+  </si>
+  <si>
+    <t>désagréable</t>
+  </si>
+  <si>
     <t>Speech</t>
   </si>
   <si>
@@ -181,10 +205,22 @@
     <t>-graphie</t>
   </si>
   <si>
-    <t>photography</t>
-  </si>
-  <si>
-    <t>photographie</t>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>-metry</t>
+  </si>
+  <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>géométrie</t>
   </si>
   <si>
     <t>-ary</t>
@@ -205,10 +241,10 @@
     <t>-oire</t>
   </si>
   <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>directoire</t>
+    <t>history</t>
+  </si>
+  <si>
+    <t>histoire</t>
   </si>
   <si>
     <t>-ist</t>
@@ -235,6 +271,18 @@
     <t>capitalisme</t>
   </si>
   <si>
+    <t>-junction</t>
+  </si>
+  <si>
+    <t>-jonction</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
+    <t>conjonction</t>
+  </si>
+  <si>
     <t>verb</t>
   </si>
   <si>
@@ -260,6 +308,78 @@
   </si>
   <si>
     <t>organiser</t>
+  </si>
+  <si>
+    <t>-ject</t>
+  </si>
+  <si>
+    <t>-jeter</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>projeter</t>
+  </si>
+  <si>
+    <t>-duce</t>
+  </si>
+  <si>
+    <t>-duire</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>introduire</t>
+  </si>
+  <si>
+    <t>-duct</t>
+  </si>
+  <si>
+    <t>-duit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>produit</t>
+  </si>
+  <si>
+    <t>-pend</t>
+  </si>
+  <si>
+    <t>-pendre</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t>dépendre</t>
+  </si>
+  <si>
+    <t>-vent</t>
+  </si>
+  <si>
+    <t>-venir</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>prévenir</t>
+  </si>
+  <si>
+    <t>-fer</t>
+  </si>
+  <si>
+    <t>-férer</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>conférer</t>
   </si>
 </sst>
 </file>
@@ -875,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,6 +1004,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,16 +1566,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3846153846154" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="3"/>
+    <col min="1" max="1" width="12.3846153846154" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="6"/>
+    <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
   </cols>
@@ -1483,17 +1610,45 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1505,23 +1660,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="8.46153846153846" customWidth="1"/>
-    <col min="3" max="3" width="9.07692307692308" customWidth="1"/>
-    <col min="4" max="4" width="13.2307692307692" customWidth="1"/>
-    <col min="5" max="5" width="13.9230769230769" customWidth="1"/>
+    <col min="1" max="1" width="9.38461538461539" customWidth="1"/>
+    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
+    <col min="3" max="3" width="9.53846153846154" customWidth="1"/>
+    <col min="4" max="4" width="12.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="12.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1538,254 +1694,377 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="1"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A15"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A7:A17"/>
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>English</t>
   </si>
@@ -380,6 +380,30 @@
   </si>
   <si>
     <t>conférer</t>
+  </si>
+  <si>
+    <t>-gest</t>
+  </si>
+  <si>
+    <t>-gérer</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>suggérer</t>
+  </si>
+  <si>
+    <t>-cover</t>
+  </si>
+  <si>
+    <t>-couvrir</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>découvrir</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1019,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,15 +1027,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1574,8 +1589,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3846153846154" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="6"/>
+    <col min="1" max="1" width="12.3846153846154" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.23076923076923" style="3"/>
     <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
@@ -1610,44 +1625,44 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1660,10 +1675,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1924,13 +1939,13 @@
       <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1978,93 +1993,120 @@
       <c r="D20" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A18:A27"/>
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -91,319 +91,319 @@
     <t>adjective</t>
   </si>
   <si>
+    <t>-el</t>
+  </si>
+  <si>
     <t>-al</t>
   </si>
   <si>
-    <t>-el</t>
+    <t>naturel</t>
   </si>
   <si>
     <t>natural</t>
   </si>
   <si>
-    <t>naturel</t>
+    <t>-eux</t>
   </si>
   <si>
     <t>-ous</t>
   </si>
   <si>
-    <t>-eux</t>
+    <t>dangereux</t>
   </si>
   <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>dangereux</t>
-  </si>
-  <si>
     <t>-ose</t>
   </si>
   <si>
+    <t>verbeux</t>
+  </si>
+  <si>
     <t>verbose</t>
   </si>
   <si>
-    <t>verbeux</t>
+    <t>-ique</t>
   </si>
   <si>
     <t>-ic</t>
   </si>
   <si>
-    <t>-ique</t>
+    <t>historique</t>
   </si>
   <si>
     <t>historic</t>
   </si>
   <si>
-    <t>historique</t>
+    <t>-ide</t>
   </si>
   <si>
     <t>-id</t>
   </si>
   <si>
-    <t>-ide</t>
+    <t>fluide</t>
   </si>
   <si>
     <t>fluid</t>
   </si>
   <si>
-    <t>fluide</t>
-  </si>
-  <si>
     <t>noun</t>
   </si>
   <si>
+    <t>-eur</t>
+  </si>
+  <si>
     <t>-or</t>
   </si>
   <si>
-    <t>-eur</t>
+    <t>acteur</t>
   </si>
   <si>
     <t>actor</t>
   </si>
   <si>
-    <t>acteur</t>
+    <t>-ité</t>
   </si>
   <si>
     <t>-ity</t>
   </si>
   <si>
-    <t>-ité</t>
+    <t>possibilité</t>
   </si>
   <si>
     <t>possibility</t>
   </si>
   <si>
-    <t>possibilité</t>
+    <t>-monie</t>
   </si>
   <si>
     <t>-mony</t>
   </si>
   <si>
-    <t>-monie</t>
+    <t>harmonie</t>
   </si>
   <si>
     <t>harmony</t>
   </si>
   <si>
-    <t>harmonie</t>
+    <t>-ologie</t>
   </si>
   <si>
     <t>-ology</t>
   </si>
   <si>
-    <t>-ologie</t>
+    <t>biologie</t>
   </si>
   <si>
     <t>biology</t>
   </si>
   <si>
-    <t>biologie</t>
+    <t>-graphie</t>
   </si>
   <si>
     <t>-graphy</t>
   </si>
   <si>
-    <t>-graphie</t>
+    <t>géographie</t>
   </si>
   <si>
     <t>geography</t>
   </si>
   <si>
-    <t>géographie</t>
+    <t>-métrie</t>
   </si>
   <si>
     <t>-metry</t>
   </si>
   <si>
-    <t>-métrie</t>
+    <t>géométrie</t>
   </si>
   <si>
     <t>geometry</t>
   </si>
   <si>
-    <t>géométrie</t>
+    <t>-aire</t>
   </si>
   <si>
     <t>-ary</t>
   </si>
   <si>
-    <t>-aire</t>
+    <t>dictionaire</t>
   </si>
   <si>
     <t>dictionary</t>
   </si>
   <si>
-    <t>dictionaire</t>
+    <t>-oire</t>
   </si>
   <si>
     <t>-ory</t>
   </si>
   <si>
-    <t>-oire</t>
+    <t>histoire</t>
   </si>
   <si>
     <t>history</t>
   </si>
   <si>
-    <t>histoire</t>
+    <t>-iste</t>
   </si>
   <si>
     <t>-ist</t>
   </si>
   <si>
-    <t>-iste</t>
+    <t>artiste</t>
   </si>
   <si>
     <t>artist</t>
   </si>
   <si>
-    <t>artiste</t>
+    <t>-isme</t>
   </si>
   <si>
     <t>-ism</t>
   </si>
   <si>
-    <t>-isme</t>
+    <t>capitalisme</t>
   </si>
   <si>
     <t>capitalism</t>
   </si>
   <si>
-    <t>capitalisme</t>
+    <t>-jonction</t>
   </si>
   <si>
     <t>-junction</t>
   </si>
   <si>
-    <t>-jonction</t>
+    <t>conjonction</t>
   </si>
   <si>
     <t>conjunction</t>
   </si>
   <si>
-    <t>conjonction</t>
-  </si>
-  <si>
     <t>verb</t>
   </si>
   <si>
+    <t>-ifier</t>
+  </si>
+  <si>
     <t>-ify</t>
   </si>
   <si>
-    <t>-ifier</t>
+    <t>simplifier</t>
   </si>
   <si>
     <t>simplify</t>
   </si>
   <si>
-    <t>simplifier</t>
+    <t>-iser</t>
   </si>
   <si>
     <t>-ize</t>
   </si>
   <si>
-    <t>-iser</t>
+    <t>organiser</t>
   </si>
   <si>
     <t>organize</t>
   </si>
   <si>
-    <t>organiser</t>
+    <t>-jeter</t>
   </si>
   <si>
     <t>-ject</t>
   </si>
   <si>
-    <t>-jeter</t>
+    <t>projeter</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>projeter</t>
+    <t>-duire</t>
   </si>
   <si>
     <t>-duce</t>
   </si>
   <si>
-    <t>-duire</t>
+    <t>introduire</t>
   </si>
   <si>
     <t>introduce</t>
   </si>
   <si>
-    <t>introduire</t>
+    <t>-duit</t>
   </si>
   <si>
     <t>-duct</t>
   </si>
   <si>
-    <t>-duit</t>
+    <t>produit</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>produit</t>
+    <t>-pendre</t>
   </si>
   <si>
     <t>-pend</t>
   </si>
   <si>
-    <t>-pendre</t>
+    <t>dépendre</t>
   </si>
   <si>
     <t>depend</t>
   </si>
   <si>
-    <t>dépendre</t>
+    <t>-venir</t>
   </si>
   <si>
     <t>-vent</t>
   </si>
   <si>
-    <t>-venir</t>
+    <t>prévenir</t>
   </si>
   <si>
     <t>prevent</t>
   </si>
   <si>
-    <t>prévenir</t>
+    <t>-férer</t>
   </si>
   <si>
     <t>-fer</t>
   </si>
   <si>
-    <t>-férer</t>
+    <t>conférer</t>
   </si>
   <si>
     <t>confer</t>
   </si>
   <si>
-    <t>conférer</t>
+    <t>-gérer</t>
   </si>
   <si>
     <t>-gest</t>
   </si>
   <si>
-    <t>-gérer</t>
+    <t>suggérer</t>
   </si>
   <si>
     <t>suggest</t>
   </si>
   <si>
-    <t>suggérer</t>
+    <t>-couvrir</t>
   </si>
   <si>
     <t>-cover</t>
   </si>
   <si>
-    <t>-couvrir</t>
+    <t>découvrir</t>
   </si>
   <si>
     <t>discover</t>
-  </si>
-  <si>
-    <t>découvrir</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1584,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1677,17 +1677,17 @@
   <sheetPr/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.38461538461539" customWidth="1"/>
-    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
-    <col min="3" max="3" width="9.53846153846154" customWidth="1"/>
-    <col min="4" max="4" width="12.3076923076923" customWidth="1"/>
-    <col min="5" max="5" width="12.2307692307692" customWidth="1"/>
+    <col min="2" max="2" width="9.53846153846154" customWidth="1"/>
+    <col min="3" max="3" width="9.61538461538461" customWidth="1"/>
+    <col min="4" max="4" width="12.2307692307692" customWidth="1"/>
+    <col min="5" max="5" width="12.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1695,16 +1695,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1741,10 +1741,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1990,10 +1990,10 @@
       <c r="C20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2107,7 +2107,7 @@
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A17"/>
     <mergeCell ref="A18:A27"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
     <sheet name="prefix-shift" sheetId="2" r:id="rId2"/>
-    <sheet name="suffix" sheetId="4" r:id="rId3"/>
+    <sheet name="suffix-n" sheetId="5" r:id="rId3"/>
+    <sheet name="suffix-v" sheetId="6" r:id="rId4"/>
+    <sheet name="suffix-adj" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
   <si>
     <t>English</t>
   </si>
@@ -85,10 +87,292 @@
     <t>désagréable</t>
   </si>
   <si>
-    <t>Speech</t>
-  </si>
-  <si>
-    <t>adjective</t>
+    <t>-eur</t>
+  </si>
+  <si>
+    <t>-or</t>
+  </si>
+  <si>
+    <t>acteur</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>-ité</t>
+  </si>
+  <si>
+    <t>-ity</t>
+  </si>
+  <si>
+    <t>possibilité</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>-monie</t>
+  </si>
+  <si>
+    <t>-mony</t>
+  </si>
+  <si>
+    <t>harmonie</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>-ologie</t>
+  </si>
+  <si>
+    <t>-ology</t>
+  </si>
+  <si>
+    <t>biologie</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>-graphie</t>
+  </si>
+  <si>
+    <t>-graphy</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>-metry</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>-aire</t>
+  </si>
+  <si>
+    <t>-ary</t>
+  </si>
+  <si>
+    <t>dictionaire</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>-oire</t>
+  </si>
+  <si>
+    <t>-ory</t>
+  </si>
+  <si>
+    <t>histoire</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>-iste</t>
+  </si>
+  <si>
+    <t>-ist</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>-isme</t>
+  </si>
+  <si>
+    <t>-ism</t>
+  </si>
+  <si>
+    <t>capitalisme</t>
+  </si>
+  <si>
+    <t>capitalism</t>
+  </si>
+  <si>
+    <t>-jonction</t>
+  </si>
+  <si>
+    <t>-junction</t>
+  </si>
+  <si>
+    <t>conjonction</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
+    <t>-ifier</t>
+  </si>
+  <si>
+    <t>-ify</t>
+  </si>
+  <si>
+    <t>simplifier</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t>-iser</t>
+  </si>
+  <si>
+    <t>-ize</t>
+  </si>
+  <si>
+    <t>organiser</t>
+  </si>
+  <si>
+    <t>organize</t>
+  </si>
+  <si>
+    <t>-jeter</t>
+  </si>
+  <si>
+    <t>-ject</t>
+  </si>
+  <si>
+    <t>projeter</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>-duire</t>
+  </si>
+  <si>
+    <t>-duce</t>
+  </si>
+  <si>
+    <t>introduire</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>-duit</t>
+  </si>
+  <si>
+    <t>-duct</t>
+  </si>
+  <si>
+    <t>produit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>-pendre</t>
+  </si>
+  <si>
+    <t>-pend</t>
+  </si>
+  <si>
+    <t>dépendre</t>
+  </si>
+  <si>
+    <t>depend</t>
+  </si>
+  <si>
+    <t>-venir</t>
+  </si>
+  <si>
+    <t>-vent</t>
+  </si>
+  <si>
+    <t>prévenir</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>-férer</t>
+  </si>
+  <si>
+    <t>-fer</t>
+  </si>
+  <si>
+    <t>conférer</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>-gérer</t>
+  </si>
+  <si>
+    <t>-gest</t>
+  </si>
+  <si>
+    <t>suggérer</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>-riger</t>
+  </si>
+  <si>
+    <t>-rect</t>
+  </si>
+  <si>
+    <t>diriger</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>-tinguish</t>
+  </si>
+  <si>
+    <t>-tinguer</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+  </si>
+  <si>
+    <t>distinguer</t>
+  </si>
+  <si>
+    <t>-couvrir</t>
+  </si>
+  <si>
+    <t>-cover</t>
+  </si>
+  <si>
+    <t>découvrir</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>-cevoir</t>
+  </si>
+  <si>
+    <t>-ceive</t>
+  </si>
+  <si>
+    <t>recevoir</t>
+  </si>
+  <si>
+    <t>receive</t>
   </si>
   <si>
     <t>-el</t>
@@ -146,264 +430,6 @@
   </si>
   <si>
     <t>fluid</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>-eur</t>
-  </si>
-  <si>
-    <t>-or</t>
-  </si>
-  <si>
-    <t>acteur</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>-ité</t>
-  </si>
-  <si>
-    <t>-ity</t>
-  </si>
-  <si>
-    <t>possibilité</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>-monie</t>
-  </si>
-  <si>
-    <t>-mony</t>
-  </si>
-  <si>
-    <t>harmonie</t>
-  </si>
-  <si>
-    <t>harmony</t>
-  </si>
-  <si>
-    <t>-ologie</t>
-  </si>
-  <si>
-    <t>-ology</t>
-  </si>
-  <si>
-    <t>biologie</t>
-  </si>
-  <si>
-    <t>biology</t>
-  </si>
-  <si>
-    <t>-graphie</t>
-  </si>
-  <si>
-    <t>-graphy</t>
-  </si>
-  <si>
-    <t>géographie</t>
-  </si>
-  <si>
-    <t>geography</t>
-  </si>
-  <si>
-    <t>-métrie</t>
-  </si>
-  <si>
-    <t>-metry</t>
-  </si>
-  <si>
-    <t>géométrie</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>-aire</t>
-  </si>
-  <si>
-    <t>-ary</t>
-  </si>
-  <si>
-    <t>dictionaire</t>
-  </si>
-  <si>
-    <t>dictionary</t>
-  </si>
-  <si>
-    <t>-oire</t>
-  </si>
-  <si>
-    <t>-ory</t>
-  </si>
-  <si>
-    <t>histoire</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>-iste</t>
-  </si>
-  <si>
-    <t>-ist</t>
-  </si>
-  <si>
-    <t>artiste</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>-isme</t>
-  </si>
-  <si>
-    <t>-ism</t>
-  </si>
-  <si>
-    <t>capitalisme</t>
-  </si>
-  <si>
-    <t>capitalism</t>
-  </si>
-  <si>
-    <t>-jonction</t>
-  </si>
-  <si>
-    <t>-junction</t>
-  </si>
-  <si>
-    <t>conjonction</t>
-  </si>
-  <si>
-    <t>conjunction</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>-ifier</t>
-  </si>
-  <si>
-    <t>-ify</t>
-  </si>
-  <si>
-    <t>simplifier</t>
-  </si>
-  <si>
-    <t>simplify</t>
-  </si>
-  <si>
-    <t>-iser</t>
-  </si>
-  <si>
-    <t>-ize</t>
-  </si>
-  <si>
-    <t>organiser</t>
-  </si>
-  <si>
-    <t>organize</t>
-  </si>
-  <si>
-    <t>-jeter</t>
-  </si>
-  <si>
-    <t>-ject</t>
-  </si>
-  <si>
-    <t>projeter</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>-duire</t>
-  </si>
-  <si>
-    <t>-duce</t>
-  </si>
-  <si>
-    <t>introduire</t>
-  </si>
-  <si>
-    <t>introduce</t>
-  </si>
-  <si>
-    <t>-duit</t>
-  </si>
-  <si>
-    <t>-duct</t>
-  </si>
-  <si>
-    <t>produit</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>-pendre</t>
-  </si>
-  <si>
-    <t>-pend</t>
-  </si>
-  <si>
-    <t>dépendre</t>
-  </si>
-  <si>
-    <t>depend</t>
-  </si>
-  <si>
-    <t>-venir</t>
-  </si>
-  <si>
-    <t>-vent</t>
-  </si>
-  <si>
-    <t>prévenir</t>
-  </si>
-  <si>
-    <t>prevent</t>
-  </si>
-  <si>
-    <t>-férer</t>
-  </si>
-  <si>
-    <t>-fer</t>
-  </si>
-  <si>
-    <t>conférer</t>
-  </si>
-  <si>
-    <t>confer</t>
-  </si>
-  <si>
-    <t>-gérer</t>
-  </si>
-  <si>
-    <t>-gest</t>
-  </si>
-  <si>
-    <t>suggérer</t>
-  </si>
-  <si>
-    <t>suggest</t>
-  </si>
-  <si>
-    <t>-couvrir</t>
-  </si>
-  <si>
-    <t>-cover</t>
-  </si>
-  <si>
-    <t>découvrir</t>
-  </si>
-  <si>
-    <t>discover</t>
   </si>
 </sst>
 </file>
@@ -1675,439 +1701,514 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
+    <col min="3" max="3" width="12.2307692307692" customWidth="1"/>
+    <col min="4" max="4" width="12.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
+    <col min="2" max="2" width="8.69230769230769" customWidth="1"/>
+    <col min="3" max="3" width="11.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="10.4615384615385" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D$1:D$1048576"/>
+      <selection activeCell="A7" sqref="$A7:$XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.38461538461539" customWidth="1"/>
-    <col min="2" max="2" width="9.53846153846154" customWidth="1"/>
-    <col min="3" max="3" width="9.61538461538461" customWidth="1"/>
-    <col min="4" max="4" width="12.2307692307692" customWidth="1"/>
-    <col min="5" max="5" width="12.3076923076923" customWidth="1"/>
+    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
+    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
+    <col min="3" max="3" width="12.2307692307692" customWidth="1"/>
+    <col min="4" max="4" width="12.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="4"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -31,60 +31,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="241">
+  <si>
+    <t>French</t>
+  </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>French</t>
+    <t>par-</t>
   </si>
   <si>
     <t>per-</t>
   </si>
   <si>
-    <t>par-</t>
+    <t>parfum</t>
   </si>
   <si>
     <t>perfume</t>
   </si>
   <si>
-    <t>parfum</t>
+    <t>pré-</t>
   </si>
   <si>
     <t>pre-</t>
   </si>
   <si>
-    <t>pré-</t>
+    <t>préparer</t>
   </si>
   <si>
     <t>prepare</t>
   </si>
   <si>
-    <t>préparer</t>
+    <t>ré-</t>
   </si>
   <si>
     <t>re-</t>
   </si>
   <si>
-    <t>ré-</t>
+    <t>réactiver</t>
   </si>
   <si>
     <t>reactivate</t>
   </si>
   <si>
-    <t>réactiver</t>
+    <t>rap-</t>
+  </si>
+  <si>
+    <t>rapporter</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>dés-</t>
   </si>
   <si>
     <t>dis-</t>
   </si>
   <si>
-    <t>dés-</t>
+    <t>désagréable</t>
   </si>
   <si>
     <t>disagreeable</t>
   </si>
   <si>
-    <t>désagréable</t>
+    <t>mé-</t>
+  </si>
+  <si>
+    <t>mis-</t>
+  </si>
+  <si>
+    <t>méjuger</t>
+  </si>
+  <si>
+    <t>misjudge</t>
+  </si>
+  <si>
+    <t>-aire</t>
+  </si>
+  <si>
+    <t>-ary</t>
+  </si>
+  <si>
+    <t>dictionaire</t>
+  </si>
+  <si>
+    <t>dictionary</t>
+  </si>
+  <si>
+    <t>-cès</t>
+  </si>
+  <si>
+    <t>-cess</t>
+  </si>
+  <si>
+    <t>succès</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>-duit</t>
+  </si>
+  <si>
+    <t>-duct</t>
+  </si>
+  <si>
+    <t>produit</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>-eur</t>
@@ -99,6 +156,54 @@
     <t>actor</t>
   </si>
   <si>
+    <t>-graphie</t>
+  </si>
+  <si>
+    <t>-graphy</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>-grès</t>
+  </si>
+  <si>
+    <t>-gress</t>
+  </si>
+  <si>
+    <t>progrès</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>-isme</t>
+  </si>
+  <si>
+    <t>-ism</t>
+  </si>
+  <si>
+    <t>capitalisme</t>
+  </si>
+  <si>
+    <t>capitalism</t>
+  </si>
+  <si>
+    <t>-iste</t>
+  </si>
+  <si>
+    <t>-ist</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
     <t>-ité</t>
   </si>
   <si>
@@ -111,6 +216,18 @@
     <t>possibility</t>
   </si>
   <si>
+    <t>-jonction</t>
+  </si>
+  <si>
+    <t>-junction</t>
+  </si>
+  <si>
+    <t>conjonction</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
     <t>-monie</t>
   </si>
   <si>
@@ -123,6 +240,30 @@
     <t>harmony</t>
   </si>
   <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>-metry</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>-oire</t>
+  </si>
+  <si>
+    <t>-ory</t>
+  </si>
+  <si>
+    <t>histoire</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
     <t>-ologie</t>
   </si>
   <si>
@@ -135,88 +276,133 @@
     <t>biology</t>
   </si>
   <si>
-    <t>-graphie</t>
-  </si>
-  <si>
-    <t>-graphy</t>
-  </si>
-  <si>
-    <t>géographie</t>
-  </si>
-  <si>
-    <t>geography</t>
-  </si>
-  <si>
-    <t>-métrie</t>
-  </si>
-  <si>
-    <t>-metry</t>
-  </si>
-  <si>
-    <t>géométrie</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>-aire</t>
-  </si>
-  <si>
-    <t>-ary</t>
-  </si>
-  <si>
-    <t>dictionaire</t>
-  </si>
-  <si>
-    <t>dictionary</t>
-  </si>
-  <si>
-    <t>-oire</t>
-  </si>
-  <si>
-    <t>-ory</t>
-  </si>
-  <si>
-    <t>histoire</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>-iste</t>
-  </si>
-  <si>
-    <t>-ist</t>
-  </si>
-  <si>
-    <t>artiste</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>-isme</t>
-  </si>
-  <si>
-    <t>-ism</t>
-  </si>
-  <si>
-    <t>capitalisme</t>
-  </si>
-  <si>
-    <t>capitalism</t>
-  </si>
-  <si>
-    <t>-jonction</t>
-  </si>
-  <si>
-    <t>-junction</t>
-  </si>
-  <si>
-    <t>conjonction</t>
-  </si>
-  <si>
-    <t>conjunction</t>
+    <t>-trait</t>
+  </si>
+  <si>
+    <t>-tract</t>
+  </si>
+  <si>
+    <t>extrait</t>
+  </si>
+  <si>
+    <t>extract</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>+er</t>
+  </si>
+  <si>
+    <t>-céder</t>
+  </si>
+  <si>
+    <t>-cede</t>
+  </si>
+  <si>
+    <t>concéder</t>
+  </si>
+  <si>
+    <t>concede</t>
+  </si>
+  <si>
+    <t>-cevoir</t>
+  </si>
+  <si>
+    <t>-ceive</t>
+  </si>
+  <si>
+    <t>recevoir</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>-clamer</t>
+  </si>
+  <si>
+    <t>-claim</t>
+  </si>
+  <si>
+    <t>proclamer</t>
+  </si>
+  <si>
+    <t>proclaim</t>
+  </si>
+  <si>
+    <t>-clure</t>
+  </si>
+  <si>
+    <t>-clude</t>
+  </si>
+  <si>
+    <t>conclure</t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>-couvrir</t>
+  </si>
+  <si>
+    <t>-cover</t>
+  </si>
+  <si>
+    <t>découvrir</t>
+  </si>
+  <si>
+    <t>discover</t>
+  </si>
+  <si>
+    <t>-uire</t>
+  </si>
+  <si>
+    <t>-duire</t>
+  </si>
+  <si>
+    <t>-duce</t>
+  </si>
+  <si>
+    <t>introduire</t>
+  </si>
+  <si>
+    <t>introduce</t>
+  </si>
+  <si>
+    <t>-férer</t>
+  </si>
+  <si>
+    <t>-fer</t>
+  </si>
+  <si>
+    <t>conférer</t>
+  </si>
+  <si>
+    <t>confer</t>
+  </si>
+  <si>
+    <t>-gérer</t>
+  </si>
+  <si>
+    <t>-gest</t>
+  </si>
+  <si>
+    <t>suggérer</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>-hiber</t>
+  </si>
+  <si>
+    <t>-hibit</t>
+  </si>
+  <si>
+    <t>exhiber</t>
+  </si>
+  <si>
+    <t>exhibit</t>
   </si>
   <si>
     <t>-ifier</t>
@@ -255,28 +441,40 @@
     <t>project</t>
   </si>
   <si>
-    <t>-duire</t>
-  </si>
-  <si>
-    <t>-duce</t>
-  </si>
-  <si>
-    <t>introduire</t>
-  </si>
-  <si>
-    <t>introduce</t>
-  </si>
-  <si>
-    <t>-duit</t>
-  </si>
-  <si>
-    <t>-duct</t>
-  </si>
-  <si>
-    <t>produit</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>-mettre</t>
+  </si>
+  <si>
+    <t>-mit</t>
+  </si>
+  <si>
+    <t>transmettre</t>
+  </si>
+  <si>
+    <t>transmit</t>
+  </si>
+  <si>
+    <t>-mise</t>
+  </si>
+  <si>
+    <t>remettre</t>
+  </si>
+  <si>
+    <t>remise</t>
+  </si>
+  <si>
+    <t>-noncer</t>
+  </si>
+  <si>
+    <t>-nounce</t>
+  </si>
+  <si>
+    <t>prononcer</t>
+  </si>
+  <si>
+    <t>pronounce</t>
+  </si>
+  <si>
+    <t>-dre</t>
   </si>
   <si>
     <t>-pendre</t>
@@ -291,6 +489,159 @@
     <t>depend</t>
   </si>
   <si>
+    <t>-prendre</t>
+  </si>
+  <si>
+    <t>-prehend</t>
+  </si>
+  <si>
+    <t>comprendre</t>
+  </si>
+  <si>
+    <t>comprehend</t>
+  </si>
+  <si>
+    <t>-pliquer</t>
+  </si>
+  <si>
+    <t>-ply</t>
+  </si>
+  <si>
+    <t>répliquer</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>-plicate</t>
+  </si>
+  <si>
+    <t>compliquer</t>
+  </si>
+  <si>
+    <t>complicate</t>
+  </si>
+  <si>
+    <t>-riger</t>
+  </si>
+  <si>
+    <t>-rect</t>
+  </si>
+  <si>
+    <t>diriger</t>
+  </si>
+  <si>
+    <t>direct</t>
+  </si>
+  <si>
+    <t>-scrire</t>
+  </si>
+  <si>
+    <t>-scribe</t>
+  </si>
+  <si>
+    <t>inscrire</t>
+  </si>
+  <si>
+    <t>inscribe</t>
+  </si>
+  <si>
+    <t>-uer</t>
+  </si>
+  <si>
+    <t>-stituer</t>
+  </si>
+  <si>
+    <t>-stitute</t>
+  </si>
+  <si>
+    <t>constituer</t>
+  </si>
+  <si>
+    <t>constitute</t>
+  </si>
+  <si>
+    <t>-struire</t>
+  </si>
+  <si>
+    <t>-struct</t>
+  </si>
+  <si>
+    <t>construire</t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>-sécuter</t>
+  </si>
+  <si>
+    <t>-secute</t>
+  </si>
+  <si>
+    <t>persécuter</t>
+  </si>
+  <si>
+    <t>persecute</t>
+  </si>
+  <si>
+    <t>-tendre</t>
+  </si>
+  <si>
+    <t>-tend</t>
+  </si>
+  <si>
+    <t>prétendre</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>-tenir</t>
+  </si>
+  <si>
+    <t>-tain</t>
+  </si>
+  <si>
+    <t>contenir</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>-tinguer</t>
+  </si>
+  <si>
+    <t>-tinguish</t>
+  </si>
+  <si>
+    <t>distinguer</t>
+  </si>
+  <si>
+    <t>distinguish</t>
+  </si>
+  <si>
+    <t>-traire</t>
+  </si>
+  <si>
+    <t>distraire</t>
+  </si>
+  <si>
+    <t>distract</t>
+  </si>
+  <si>
+    <t>-tribuer</t>
+  </si>
+  <si>
+    <t>-tribute</t>
+  </si>
+  <si>
+    <t>attribuer</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
     <t>-venir</t>
   </si>
   <si>
@@ -303,76 +654,16 @@
     <t>prevent</t>
   </si>
   <si>
-    <t>-férer</t>
-  </si>
-  <si>
-    <t>-fer</t>
-  </si>
-  <si>
-    <t>conférer</t>
-  </si>
-  <si>
-    <t>confer</t>
-  </si>
-  <si>
-    <t>-gérer</t>
-  </si>
-  <si>
-    <t>-gest</t>
-  </si>
-  <si>
-    <t>suggérer</t>
-  </si>
-  <si>
-    <t>suggest</t>
-  </si>
-  <si>
-    <t>-riger</t>
-  </si>
-  <si>
-    <t>-rect</t>
-  </si>
-  <si>
-    <t>diriger</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>-tinguish</t>
-  </si>
-  <si>
-    <t>-tinguer</t>
-  </si>
-  <si>
-    <t>distinguish</t>
-  </si>
-  <si>
-    <t>distinguer</t>
-  </si>
-  <si>
-    <t>-couvrir</t>
-  </si>
-  <si>
-    <t>-cover</t>
-  </si>
-  <si>
-    <t>découvrir</t>
-  </si>
-  <si>
-    <t>discover</t>
-  </si>
-  <si>
-    <t>-cevoir</t>
-  </si>
-  <si>
-    <t>-ceive</t>
-  </si>
-  <si>
-    <t>recevoir</t>
-  </si>
-  <si>
-    <t>receive</t>
+    <t>-voquer</t>
+  </si>
+  <si>
+    <t>-voke</t>
+  </si>
+  <si>
+    <t>provoquer</t>
+  </si>
+  <si>
+    <t>provoke</t>
   </si>
   <si>
     <t>-el</t>
@@ -408,6 +699,30 @@
     <t>verbose</t>
   </si>
   <si>
+    <t>-éen</t>
+  </si>
+  <si>
+    <t>-ean</t>
+  </si>
+  <si>
+    <t>européen</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>-ide</t>
+  </si>
+  <si>
+    <t>-id</t>
+  </si>
+  <si>
+    <t>fluide</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
     <t>-ique</t>
   </si>
   <si>
@@ -420,16 +735,25 @@
     <t>historic</t>
   </si>
   <si>
-    <t>-ide</t>
-  </si>
-  <si>
-    <t>-id</t>
-  </si>
-  <si>
-    <t>fluide</t>
-  </si>
-  <si>
-    <t>fluid</t>
+    <t>-tan</t>
+  </si>
+  <si>
+    <t>métropolitain</t>
+  </si>
+  <si>
+    <t>metropolitan</t>
+  </si>
+  <si>
+    <t>-rieur</t>
+  </si>
+  <si>
+    <t>-rior</t>
+  </si>
+  <si>
+    <t>supérieur</t>
+  </si>
+  <si>
+    <t>superior</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1053,6 +1377,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1607,18 +1940,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.3846153846154" style="3" customWidth="1"/>
-    <col min="2" max="2" width="9.23076923076923" style="3"/>
-    <col min="3" max="3" width="12.9230769230769" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.23076923076923" style="6"/>
+    <col min="2" max="2" width="12.3846153846154" style="6" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1651,48 +1984,77 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1701,10 +2063,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="204" zoomScaleNormal="204" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1716,173 +2078,245 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>54</v>
+      <c r="A11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>58</v>
+      <c r="A12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D15">
+    <sortCondition ref="A2:A15"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1891,23 +2325,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="185" zoomScaleNormal="185" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
-    <col min="2" max="2" width="8.69230769230769" customWidth="1"/>
-    <col min="3" max="3" width="11.4615384615385" customWidth="1"/>
-    <col min="4" max="4" width="10.4615384615385" customWidth="1"/>
+    <col min="1" max="1" width="8.38461538461539" customWidth="1"/>
+    <col min="2" max="2" width="9.53846153846154" customWidth="1"/>
+    <col min="3" max="3" width="8.69230769230769" customWidth="1"/>
+    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="12.8461538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1918,190 +2353,516 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="B32" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="B17:E24">
+    <sortCondition ref="B17"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2110,103 +2871,154 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
     <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
-    <col min="3" max="3" width="12.2307692307692" customWidth="1"/>
-    <col min="4" max="4" width="12.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="14.3076923076923" customWidth="1"/>
+    <col min="4" max="4" width="13.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>217</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>220</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
+      <c r="A5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A5:D9">
+    <sortCondition ref="D9"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A3:A4"/>
   </mergeCells>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="249">
   <si>
     <t>French</t>
   </si>
@@ -291,19 +291,28 @@
     <t>Change</t>
   </si>
   <si>
+    <t>-céder</t>
+  </si>
+  <si>
+    <t>-cede</t>
+  </si>
+  <si>
+    <t>concéder</t>
+  </si>
+  <si>
+    <t>concede</t>
+  </si>
+  <si>
     <t>+er</t>
   </si>
   <si>
-    <t>-céder</t>
-  </si>
-  <si>
-    <t>-cede</t>
-  </si>
-  <si>
-    <t>concéder</t>
-  </si>
-  <si>
-    <t>concede</t>
+    <t>-ceed</t>
+  </si>
+  <si>
+    <t>procéder</t>
+  </si>
+  <si>
+    <t>proceed</t>
   </si>
   <si>
     <t>-cevoir</t>
@@ -354,9 +363,6 @@
     <t>discover</t>
   </si>
   <si>
-    <t>-uire</t>
-  </si>
-  <si>
     <t>-duire</t>
   </si>
   <si>
@@ -369,6 +375,9 @@
     <t>introduce</t>
   </si>
   <si>
+    <t>-uire/-u*</t>
+  </si>
+  <si>
     <t>-férer</t>
   </si>
   <si>
@@ -474,9 +483,6 @@
     <t>pronounce</t>
   </si>
   <si>
-    <t>-dre</t>
-  </si>
-  <si>
     <t>-pendre</t>
   </si>
   <si>
@@ -489,6 +495,9 @@
     <t>depend</t>
   </si>
   <si>
+    <t>-endre/-end</t>
+  </si>
+  <si>
     <t>-prendre</t>
   </si>
   <si>
@@ -513,6 +522,9 @@
     <t>reply</t>
   </si>
   <si>
+    <t>-cate/-que</t>
+  </si>
+  <si>
     <t>-plicate</t>
   </si>
   <si>
@@ -546,9 +558,6 @@
     <t>inscribe</t>
   </si>
   <si>
-    <t>-uer</t>
-  </si>
-  <si>
     <t>-stituer</t>
   </si>
   <si>
@@ -561,6 +570,9 @@
     <t>constitute</t>
   </si>
   <si>
+    <t>-uer/-ute</t>
+  </si>
+  <si>
     <t>-struire</t>
   </si>
   <si>
@@ -619,6 +631,18 @@
   </si>
   <si>
     <t>distinguish</t>
+  </si>
+  <si>
+    <t>-torquer</t>
+  </si>
+  <si>
+    <t>-tort</t>
+  </si>
+  <si>
+    <t>extorquer</t>
+  </si>
+  <si>
+    <t>extort</t>
   </si>
   <si>
     <t>-traire</t>
@@ -1369,7 +1393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,13 +1407,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1948,8 +1969,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="6"/>
-    <col min="2" max="2" width="12.3846153846154" style="6" customWidth="1"/>
+    <col min="1" max="1" width="9.23076923076923" style="3"/>
+    <col min="2" max="2" width="12.3846153846154" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
@@ -1984,64 +2005,64 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2063,10 +2084,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2258,60 +2279,47 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" customFormat="1"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A2:D15">
@@ -2325,104 +2333,104 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.38461538461539" customWidth="1"/>
-    <col min="2" max="2" width="9.53846153846154" customWidth="1"/>
-    <col min="3" max="3" width="8.69230769230769" customWidth="1"/>
-    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
-    <col min="5" max="5" width="12.8461538461538" customWidth="1"/>
+    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
+    <col min="2" max="2" width="8.69230769230769" customWidth="1"/>
+    <col min="3" max="3" width="11.4615384615385" customWidth="1"/>
+    <col min="4" max="4" width="12.8461538461538" customWidth="1"/>
+    <col min="5" max="5" width="12.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>103</v>
       </c>
@@ -2432,46 +2440,44 @@
       <c r="D6" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
         <v>116</v>
       </c>
@@ -2481,45 +2487,43 @@
       <c r="D9" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>128</v>
@@ -2530,190 +2534,194 @@
       <c r="D12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
       <c r="B13" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>158</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="C21" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="1" t="s">
         <v>166</v>
       </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="1" t="s">
         <v>170</v>
       </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -2721,147 +2729,174 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="D25" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="E25" s="5" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E26" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="D27" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="E27" s="5" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
+      <c r="A28" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4"/>
+      <c r="A29" s="1" t="s">
+        <v>196</v>
+      </c>
       <c r="B29" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="4"/>
-      <c r="B31" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="B32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="3" t="s">
         <v>209</v>
       </c>
+      <c r="D32" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="E32" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="B17:E24">
-    <sortCondition ref="B17"/>
+  <sortState ref="A17:D24">
+    <sortCondition ref="A17"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:B20"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2874,7 +2909,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2901,112 +2936,112 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:4">

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="3"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
     <sheet name="prefix-shift" sheetId="2" r:id="rId2"/>
     <sheet name="suffix-n" sheetId="5" r:id="rId3"/>
-    <sheet name="suffix-v" sheetId="6" r:id="rId4"/>
-    <sheet name="suffix-adj" sheetId="4" r:id="rId5"/>
+    <sheet name="suffix-adj" sheetId="4" r:id="rId4"/>
+    <sheet name="suffix-v" sheetId="8" r:id="rId5"/>
+    <sheet name="root-n" sheetId="7" r:id="rId6"/>
+    <sheet name="root-v" sheetId="6" r:id="rId7"/>
+    <sheet name="root-adj" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="269">
   <si>
     <t>French</t>
   </si>
@@ -39,6 +42,18 @@
     <t>English</t>
   </si>
   <si>
+    <t>dés-</t>
+  </si>
+  <si>
+    <t>dis-</t>
+  </si>
+  <si>
+    <t>désagréable</t>
+  </si>
+  <si>
+    <t>disagreeable</t>
+  </si>
+  <si>
     <t>par-</t>
   </si>
   <si>
@@ -84,18 +99,6 @@
     <t>reporter</t>
   </si>
   <si>
-    <t>dés-</t>
-  </si>
-  <si>
-    <t>dis-</t>
-  </si>
-  <si>
-    <t>désagréable</t>
-  </si>
-  <si>
-    <t>disagreeable</t>
-  </si>
-  <si>
     <t>mé-</t>
   </si>
   <si>
@@ -120,6 +123,177 @@
     <t>dictionary</t>
   </si>
   <si>
+    <t>-duit</t>
+  </si>
+  <si>
+    <t>-duct</t>
+  </si>
+  <si>
+    <t>produit</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>-eur</t>
+  </si>
+  <si>
+    <t>-or</t>
+  </si>
+  <si>
+    <t>acteur</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>-isme</t>
+  </si>
+  <si>
+    <t>-ism</t>
+  </si>
+  <si>
+    <t>capitalisme</t>
+  </si>
+  <si>
+    <t>capitalism</t>
+  </si>
+  <si>
+    <t>-iste</t>
+  </si>
+  <si>
+    <t>-ist</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>-ité</t>
+  </si>
+  <si>
+    <t>-ity</t>
+  </si>
+  <si>
+    <t>possibilité</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>-oire</t>
+  </si>
+  <si>
+    <t>-ory</t>
+  </si>
+  <si>
+    <t>histoire</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>-el</t>
+  </si>
+  <si>
+    <t>-al</t>
+  </si>
+  <si>
+    <t>naturel</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>-eux</t>
+  </si>
+  <si>
+    <t>-ous</t>
+  </si>
+  <si>
+    <t>dangereux</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>-ose</t>
+  </si>
+  <si>
+    <t>verbeux</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>-éen</t>
+  </si>
+  <si>
+    <t>-ean</t>
+  </si>
+  <si>
+    <t>européen</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>-ide</t>
+  </si>
+  <si>
+    <t>-id</t>
+  </si>
+  <si>
+    <t>fluide</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>-ique</t>
+  </si>
+  <si>
+    <t>-ic</t>
+  </si>
+  <si>
+    <t>historique</t>
+  </si>
+  <si>
+    <t>historic</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>-ifier</t>
+  </si>
+  <si>
+    <t>-ify</t>
+  </si>
+  <si>
+    <t>simplifier</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t>+er</t>
+  </si>
+  <si>
+    <t>-iser</t>
+  </si>
+  <si>
+    <t>-ize</t>
+  </si>
+  <si>
+    <t>organiser</t>
+  </si>
+  <si>
+    <t>organize</t>
+  </si>
+  <si>
     <t>-cès</t>
   </si>
   <si>
@@ -132,30 +306,6 @@
     <t>success</t>
   </si>
   <si>
-    <t>-duit</t>
-  </si>
-  <si>
-    <t>-duct</t>
-  </si>
-  <si>
-    <t>produit</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>-eur</t>
-  </si>
-  <si>
-    <t>-or</t>
-  </si>
-  <si>
-    <t>acteur</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
     <t>-graphie</t>
   </si>
   <si>
@@ -180,42 +330,6 @@
     <t>progress</t>
   </si>
   <si>
-    <t>-isme</t>
-  </si>
-  <si>
-    <t>-ism</t>
-  </si>
-  <si>
-    <t>capitalisme</t>
-  </si>
-  <si>
-    <t>capitalism</t>
-  </si>
-  <si>
-    <t>-iste</t>
-  </si>
-  <si>
-    <t>-ist</t>
-  </si>
-  <si>
-    <t>artiste</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>-ité</t>
-  </si>
-  <si>
-    <t>-ity</t>
-  </si>
-  <si>
-    <t>possibilité</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
     <t>-jonction</t>
   </si>
   <si>
@@ -252,18 +366,6 @@
     <t>geometry</t>
   </si>
   <si>
-    <t>-oire</t>
-  </si>
-  <si>
-    <t>-ory</t>
-  </si>
-  <si>
-    <t>histoire</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
     <t>-ologie</t>
   </si>
   <si>
@@ -288,9 +390,6 @@
     <t>extract</t>
   </si>
   <si>
-    <t>Change</t>
-  </si>
-  <si>
     <t>-céder</t>
   </si>
   <si>
@@ -303,9 +402,6 @@
     <t>concede</t>
   </si>
   <si>
-    <t>+er</t>
-  </si>
-  <si>
     <t>-ceed</t>
   </si>
   <si>
@@ -363,6 +459,33 @@
     <t>discover</t>
   </si>
   <si>
+    <t>-cuter</t>
+  </si>
+  <si>
+    <t>-cuss</t>
+  </si>
+  <si>
+    <t>percuter</t>
+  </si>
+  <si>
+    <t>percuss</t>
+  </si>
+  <si>
+    <t>-diquer</t>
+  </si>
+  <si>
+    <t>-dicate</t>
+  </si>
+  <si>
+    <t>indiquer</t>
+  </si>
+  <si>
+    <t>indicate</t>
+  </si>
+  <si>
+    <t>-cate/-quer</t>
+  </si>
+  <si>
     <t>-duire</t>
   </si>
   <si>
@@ -414,30 +537,6 @@
     <t>exhibit</t>
   </si>
   <si>
-    <t>-ifier</t>
-  </si>
-  <si>
-    <t>-ify</t>
-  </si>
-  <si>
-    <t>simplifier</t>
-  </si>
-  <si>
-    <t>simplify</t>
-  </si>
-  <si>
-    <t>-iser</t>
-  </si>
-  <si>
-    <t>-ize</t>
-  </si>
-  <si>
-    <t>organiser</t>
-  </si>
-  <si>
-    <t>organize</t>
-  </si>
-  <si>
     <t>-jeter</t>
   </si>
   <si>
@@ -522,9 +621,6 @@
     <t>reply</t>
   </si>
   <si>
-    <t>-cate/-que</t>
-  </si>
-  <si>
     <t>-plicate</t>
   </si>
   <si>
@@ -621,6 +717,18 @@
     <t>contain</t>
   </si>
   <si>
+    <t>-tester</t>
+  </si>
+  <si>
+    <t>-test</t>
+  </si>
+  <si>
+    <t>protester</t>
+  </si>
+  <si>
+    <t>protest</t>
+  </si>
+  <si>
     <t>-tinguer</t>
   </si>
   <si>
@@ -678,6 +786,30 @@
     <t>prevent</t>
   </si>
   <si>
+    <t>-verser</t>
+  </si>
+  <si>
+    <t>verse</t>
+  </si>
+  <si>
+    <t>reverser</t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>-vertir</t>
+  </si>
+  <si>
+    <t>-vert</t>
+  </si>
+  <si>
+    <t>convertir</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
     <t>-voquer</t>
   </si>
   <si>
@@ -690,73 +822,16 @@
     <t>provoke</t>
   </si>
   <si>
-    <t>-el</t>
-  </si>
-  <si>
-    <t>-al</t>
-  </si>
-  <si>
-    <t>naturel</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>-eux</t>
-  </si>
-  <si>
-    <t>-ous</t>
-  </si>
-  <si>
-    <t>dangereux</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>-ose</t>
-  </si>
-  <si>
-    <t>verbeux</t>
-  </si>
-  <si>
-    <t>verbose</t>
-  </si>
-  <si>
-    <t>-éen</t>
-  </si>
-  <si>
-    <t>-ean</t>
-  </si>
-  <si>
-    <t>européen</t>
-  </si>
-  <si>
-    <t>European</t>
-  </si>
-  <si>
-    <t>-ide</t>
-  </si>
-  <si>
-    <t>-id</t>
-  </si>
-  <si>
-    <t>fluide</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>-ique</t>
-  </si>
-  <si>
-    <t>-ic</t>
-  </si>
-  <si>
-    <t>historique</t>
-  </si>
-  <si>
-    <t>historic</t>
+    <t>-hérent</t>
+  </si>
+  <si>
+    <t>-herent</t>
+  </si>
+  <si>
+    <t>cohérent</t>
+  </si>
+  <si>
+    <t>coherent</t>
   </si>
   <si>
     <t>-tan</t>
@@ -766,18 +841,6 @@
   </si>
   <si>
     <t>metropolitan</t>
-  </si>
-  <si>
-    <t>-rieur</t>
-  </si>
-  <si>
-    <t>-rior</t>
-  </si>
-  <si>
-    <t>supérieur</t>
-  </si>
-  <si>
-    <t>superior</t>
   </si>
 </sst>
 </file>
@@ -1400,10 +1463,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1961,16 +2024,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="3"/>
-    <col min="2" max="2" width="12.3846153846154" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.23076923076923" style="2"/>
+    <col min="2" max="2" width="12.3846153846154" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
@@ -1991,90 +2054,94 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2084,13 +2151,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
     <col min="3" max="3" width="12.2307692307692" customWidth="1"/>
@@ -2112,16 +2179,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2154,41 +2221,41 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2196,129 +2263,17 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2288,358 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
+    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
+    <col min="3" max="3" width="14.3076923076923" customWidth="1"/>
+    <col min="4" max="4" width="13.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
+    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
+    <col min="3" max="3" width="12.2307692307692" customWidth="1"/>
+    <col min="4" max="4" width="12.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:D8">
+    <sortCondition ref="A3:A8"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2362,529 +2665,572 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>89</v>
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>93</v>
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:5">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>90</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="A13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>136</v>
+      <c r="A14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>169</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>149</v>
+      <c r="A17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>165</v>
+        <v>195</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>177</v>
+        <v>207</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>191</v>
+        <v>221</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E31" s="5"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>179</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>243</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>90</v>
+        <v>249</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2903,19 +3249,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
-    <col min="2" max="2" width="9.61538461538461" customWidth="1"/>
+    <col min="1" max="1" width="7.84615384615385" customWidth="1"/>
+    <col min="2" max="2" width="8.38461538461539" customWidth="1"/>
     <col min="3" max="3" width="14.3076923076923" customWidth="1"/>
     <col min="4" max="4" width="13.6153846153846" customWidth="1"/>
   </cols>
@@ -2936,127 +3282,33 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A5:D9">
-    <sortCondition ref="D9"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A3:A4"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="1"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="273">
   <si>
     <t>French</t>
   </si>
@@ -691,6 +691,18 @@
   </si>
   <si>
     <t>persecute</t>
+  </si>
+  <si>
+    <t>-sumer</t>
+  </si>
+  <si>
+    <t>-sume</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>consume</t>
   </si>
   <si>
     <t>-tendre</t>
@@ -2026,7 +2038,7 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2636,10 +2648,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A18" sqref="$A18:$XFD18"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3073,11 +3085,11 @@
       <c r="C27" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3090,10 +3102,12 @@
       <c r="C28" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -3125,51 +3139,49 @@
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32" s="3" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>210</v>
-      </c>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
@@ -3178,13 +3190,15 @@
       <c r="B34" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
@@ -3229,7 +3243,22 @@
       <c r="D37" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3282,30 +3311,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
   <si>
     <t>French</t>
   </si>
@@ -483,7 +483,7 @@
     <t>indicate</t>
   </si>
   <si>
-    <t>-cate/-quer</t>
+    <t>-er/-ate</t>
   </si>
   <si>
     <t>-duire</t>
@@ -513,6 +513,30 @@
     <t>confer</t>
   </si>
   <si>
+    <t>-er</t>
+  </si>
+  <si>
+    <t>-fuser</t>
+  </si>
+  <si>
+    <t>-fuse</t>
+  </si>
+  <si>
+    <t>diffuser</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>-fondre</t>
+  </si>
+  <si>
+    <t>confondre</t>
+  </si>
+  <si>
+    <t>confuse</t>
+  </si>
+  <si>
     <t>-gérer</t>
   </si>
   <si>
@@ -594,7 +618,7 @@
     <t>depend</t>
   </si>
   <si>
-    <t>-endre/-end</t>
+    <t>-ndre/-nd</t>
   </si>
   <si>
     <t>-prendre</t>
@@ -621,6 +645,9 @@
     <t>reply</t>
   </si>
   <si>
+    <t>-er/-y</t>
+  </si>
+  <si>
     <t>-plicate</t>
   </si>
   <si>
@@ -820,6 +847,9 @@
   </si>
   <si>
     <t>convert</t>
+  </si>
+  <si>
+    <t>-ir</t>
   </si>
   <si>
     <t>-voquer</t>
@@ -1468,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,6 +1515,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2648,10 +2681,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2835,31 +2868,31 @@
         <v>158</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>165</v>
       </c>
@@ -2868,22 +2901,20 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
@@ -2901,39 +2932,39 @@
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="D17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>183</v>
       </c>
@@ -2943,103 +2974,105 @@
       <c r="D18" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="C21" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C23" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="5" t="s">
         <v>210</v>
       </c>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
@@ -3054,9 +3087,7 @@
       <c r="D25" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
@@ -3065,201 +3096,241 @@
       <c r="B26" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>218</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D28" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E28" s="5" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>210</v>
+      <c r="C34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>81</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3268,10 +3339,10 @@
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E20:E21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3311,30 +3382,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="304">
   <si>
     <t>French</t>
   </si>
@@ -306,6 +306,30 @@
     <t>success</t>
   </si>
   <si>
+    <t>-grès</t>
+  </si>
+  <si>
+    <t>-gress</t>
+  </si>
+  <si>
+    <t>progrès</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>-près</t>
+  </si>
+  <si>
+    <t>-press</t>
+  </si>
+  <si>
+    <t>exprès</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
     <t>-graphie</t>
   </si>
   <si>
@@ -318,16 +342,40 @@
     <t>geography</t>
   </si>
   <si>
-    <t>-grès</t>
-  </si>
-  <si>
-    <t>-gress</t>
-  </si>
-  <si>
-    <t>progrès</t>
-  </si>
-  <si>
-    <t>progress</t>
+    <t>-monie</t>
+  </si>
+  <si>
+    <t>-mony</t>
+  </si>
+  <si>
+    <t>harmonie</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>-metry</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>-ologie</t>
+  </si>
+  <si>
+    <t>-ology</t>
+  </si>
+  <si>
+    <t>biologie</t>
+  </si>
+  <si>
+    <t>biology</t>
   </si>
   <si>
     <t>-jonction</t>
@@ -342,42 +390,6 @@
     <t>conjunction</t>
   </si>
   <si>
-    <t>-monie</t>
-  </si>
-  <si>
-    <t>-mony</t>
-  </si>
-  <si>
-    <t>harmonie</t>
-  </si>
-  <si>
-    <t>harmony</t>
-  </si>
-  <si>
-    <t>-métrie</t>
-  </si>
-  <si>
-    <t>-metry</t>
-  </si>
-  <si>
-    <t>géométrie</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>-ologie</t>
-  </si>
-  <si>
-    <t>-ology</t>
-  </si>
-  <si>
-    <t>biologie</t>
-  </si>
-  <si>
-    <t>biology</t>
-  </si>
-  <si>
     <t>-trait</t>
   </si>
   <si>
@@ -516,6 +528,30 @@
     <t>-er</t>
   </si>
   <si>
+    <t>-finer</t>
+  </si>
+  <si>
+    <t>-fine</t>
+  </si>
+  <si>
+    <t>confiner</t>
+  </si>
+  <si>
+    <t>confine</t>
+  </si>
+  <si>
+    <t>-former</t>
+  </si>
+  <si>
+    <t>-form</t>
+  </si>
+  <si>
+    <t>réformer</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
     <t>-fuser</t>
   </si>
   <si>
@@ -657,6 +693,21 @@
     <t>complicate</t>
   </si>
   <si>
+    <t>-primer</t>
+  </si>
+  <si>
+    <t>supprimer</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>-presser</t>
+  </si>
+  <si>
+    <t>compresser</t>
+  </si>
+  <si>
     <t>-riger</t>
   </si>
   <si>
@@ -681,6 +732,30 @@
     <t>inscribe</t>
   </si>
   <si>
+    <t>-sister</t>
+  </si>
+  <si>
+    <t>-sist</t>
+  </si>
+  <si>
+    <t>consister</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>-sécuter</t>
+  </si>
+  <si>
+    <t>-secute</t>
+  </si>
+  <si>
+    <t>persécuter</t>
+  </si>
+  <si>
+    <t>persecute</t>
+  </si>
+  <si>
     <t>-stituer</t>
   </si>
   <si>
@@ -706,18 +781,6 @@
   </si>
   <si>
     <t>construct</t>
-  </si>
-  <si>
-    <t>-sécuter</t>
-  </si>
-  <si>
-    <t>-secute</t>
-  </si>
-  <si>
-    <t>persécuter</t>
-  </si>
-  <si>
-    <t>persecute</t>
   </si>
   <si>
     <t>-sumer</t>
@@ -2529,7 +2592,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -2581,7 +2644,7 @@
       <c r="C3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2600,16 +2663,16 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2659,7 +2722,7 @@
       <c r="A9" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2667,6 +2730,20 @@
       </c>
       <c r="D9" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2681,10 +2758,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2715,16 +2792,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>81</v>
@@ -2733,43 +2810,43 @@
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>81</v>
@@ -2777,351 +2854,347 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>163</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>168</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:5">
+        <v>171</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
+        <v>175</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>172</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>176</v>
+    <row r="16" s="2" customFormat="1" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>159</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>183</v>
+      <c r="A18" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>189</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="A19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>194</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="B21" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>214</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>217</v>
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>219</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D27" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -3136,9 +3209,7 @@
       <c r="D28" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
@@ -3153,9 +3224,7 @@
       <c r="D29" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
@@ -3167,11 +3236,11 @@
       <c r="C30" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3187,7 +3256,9 @@
       <c r="D31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
@@ -3196,132 +3267,134 @@
       <c r="B32" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>243</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>159</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="E33" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>255</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D36" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="C36" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>271</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>274</v>
@@ -3329,8 +3402,89 @@
       <c r="D40" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>159</v>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3339,9 +3493,9 @@
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3382,30 +3536,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="343">
   <si>
     <t>French</t>
   </si>
@@ -111,6 +111,27 @@
     <t>misjudge</t>
   </si>
   <si>
+    <t>sou-</t>
+  </si>
+  <si>
+    <t>sub-</t>
+  </si>
+  <si>
+    <t>souscrire</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>sus-</t>
+  </si>
+  <si>
+    <t>soutenir</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
     <t>-aire</t>
   </si>
   <si>
@@ -414,6 +435,9 @@
     <t>concede</t>
   </si>
   <si>
+    <t>-er</t>
+  </si>
+  <si>
     <t>-ceed</t>
   </si>
   <si>
@@ -435,6 +459,18 @@
     <t>receive</t>
   </si>
   <si>
+    <t>-cepter</t>
+  </si>
+  <si>
+    <t>-cepte</t>
+  </si>
+  <si>
+    <t>accepter</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
     <t>-clamer</t>
   </si>
   <si>
@@ -525,9 +561,6 @@
     <t>confer</t>
   </si>
   <si>
-    <t>-er</t>
-  </si>
-  <si>
     <t>-finer</t>
   </si>
   <si>
@@ -540,6 +573,18 @@
     <t>confine</t>
   </si>
   <si>
+    <t>-firmer</t>
+  </si>
+  <si>
+    <t>-firm</t>
+  </si>
+  <si>
+    <t>affirmer</t>
+  </si>
+  <si>
+    <t>affirm</t>
+  </si>
+  <si>
     <t>-former</t>
   </si>
   <si>
@@ -585,6 +630,18 @@
     <t>suggest</t>
   </si>
   <si>
+    <t>-hérer</t>
+  </si>
+  <si>
+    <t>-here</t>
+  </si>
+  <si>
+    <t>adhérer</t>
+  </si>
+  <si>
+    <t>adhere</t>
+  </si>
+  <si>
     <t>-hiber</t>
   </si>
   <si>
@@ -657,6 +714,18 @@
     <t>-ndre/-nd</t>
   </si>
   <si>
+    <t>-poser</t>
+  </si>
+  <si>
+    <t>-pose</t>
+  </si>
+  <si>
+    <t>exposer</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
     <t>-prendre</t>
   </si>
   <si>
@@ -693,6 +762,18 @@
     <t>complicate</t>
   </si>
   <si>
+    <t>-plorer</t>
+  </si>
+  <si>
+    <t>-plore</t>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>explore</t>
+  </si>
+  <si>
     <t>-primer</t>
   </si>
   <si>
@@ -708,6 +789,18 @@
     <t>compresser</t>
   </si>
   <si>
+    <t>-pulser</t>
+  </si>
+  <si>
+    <t>-pulse</t>
+  </si>
+  <si>
+    <t>impulser</t>
+  </si>
+  <si>
+    <t>impulse</t>
+  </si>
+  <si>
     <t>-riger</t>
   </si>
   <si>
@@ -720,6 +813,18 @@
     <t>direct</t>
   </si>
   <si>
+    <t>-roger</t>
+  </si>
+  <si>
+    <t>-rogate</t>
+  </si>
+  <si>
+    <t>déroger</t>
+  </si>
+  <si>
+    <t>derogate</t>
+  </si>
+  <si>
     <t>-scrire</t>
   </si>
   <si>
@@ -754,6 +859,18 @@
   </si>
   <si>
     <t>persecute</t>
+  </si>
+  <si>
+    <t>-specter</t>
+  </si>
+  <si>
+    <t>-spect</t>
+  </si>
+  <si>
+    <t>suspecter</t>
+  </si>
+  <si>
+    <t>suspect</t>
   </si>
   <si>
     <t>-stituer</t>
@@ -1561,7 +1678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1582,6 +1699,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2132,10 +2252,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2243,12 +2363,37 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2288,100 +2433,100 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2426,84 +2571,84 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2546,41 +2691,41 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2595,7 +2740,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2622,128 +2767,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2758,10 +2903,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2787,704 +2932,838 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>153</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:5">
+        <v>186</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>190</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>188</v>
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>215</v>
+      <c r="A24" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="B25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>223</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>228</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>241</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>163</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>244</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>163</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>262</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>282</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>244</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>291</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>287</v>
+        <v>294</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>292</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>163</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3493,9 +3772,9 @@
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3536,30 +3815,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,17 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="6"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
     <sheet name="prefix-shift" sheetId="2" r:id="rId2"/>
     <sheet name="suffix-n" sheetId="5" r:id="rId3"/>
-    <sheet name="suffix-adj" sheetId="4" r:id="rId4"/>
-    <sheet name="suffix-v" sheetId="8" r:id="rId5"/>
+    <sheet name="suffix-v" sheetId="8" r:id="rId4"/>
+    <sheet name="suffix-adj" sheetId="4" r:id="rId5"/>
     <sheet name="root-n" sheetId="7" r:id="rId6"/>
     <sheet name="root-v" sheetId="6" r:id="rId7"/>
-    <sheet name="root-adj" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="344">
   <si>
     <t>French</t>
   </si>
@@ -144,6 +143,228 @@
     <t>dictionary</t>
   </si>
   <si>
+    <t>-eur</t>
+  </si>
+  <si>
+    <t>-or</t>
+  </si>
+  <si>
+    <t>acteur</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>-isme</t>
+  </si>
+  <si>
+    <t>-ism</t>
+  </si>
+  <si>
+    <t>capitalisme</t>
+  </si>
+  <si>
+    <t>capitalism</t>
+  </si>
+  <si>
+    <t>-iste</t>
+  </si>
+  <si>
+    <t>-ist</t>
+  </si>
+  <si>
+    <t>artiste</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>-ité</t>
+  </si>
+  <si>
+    <t>-ity</t>
+  </si>
+  <si>
+    <t>possibilité</t>
+  </si>
+  <si>
+    <t>possibility</t>
+  </si>
+  <si>
+    <t>-oire</t>
+  </si>
+  <si>
+    <t>-ory</t>
+  </si>
+  <si>
+    <t>histoire</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>p.p</t>
+  </si>
+  <si>
+    <t>-ifier</t>
+  </si>
+  <si>
+    <t>-ify</t>
+  </si>
+  <si>
+    <t>simplifier</t>
+  </si>
+  <si>
+    <t>simplify</t>
+  </si>
+  <si>
+    <t>+er</t>
+  </si>
+  <si>
+    <t>-iser</t>
+  </si>
+  <si>
+    <t>-ize</t>
+  </si>
+  <si>
+    <t>organiser</t>
+  </si>
+  <si>
+    <t>organize</t>
+  </si>
+  <si>
+    <t>-el</t>
+  </si>
+  <si>
+    <t>-al</t>
+  </si>
+  <si>
+    <t>naturel</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>-eux</t>
+  </si>
+  <si>
+    <t>-ous</t>
+  </si>
+  <si>
+    <t>dangereux</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>-ose</t>
+  </si>
+  <si>
+    <t>verbeux</t>
+  </si>
+  <si>
+    <t>verbose</t>
+  </si>
+  <si>
+    <t>-éen</t>
+  </si>
+  <si>
+    <t>-ean</t>
+  </si>
+  <si>
+    <t>européen</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>-ide</t>
+  </si>
+  <si>
+    <t>-id</t>
+  </si>
+  <si>
+    <t>fluide</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>-ique</t>
+  </si>
+  <si>
+    <t>-ic</t>
+  </si>
+  <si>
+    <t>historique</t>
+  </si>
+  <si>
+    <t>historic</t>
+  </si>
+  <si>
+    <t>-tain</t>
+  </si>
+  <si>
+    <t>-tan</t>
+  </si>
+  <si>
+    <t>métropolitain</t>
+  </si>
+  <si>
+    <t>metropolitan</t>
+  </si>
+  <si>
+    <t>-ment</t>
+  </si>
+  <si>
+    <t>-ly</t>
+  </si>
+  <si>
+    <t>actuellement</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>-cès</t>
+  </si>
+  <si>
+    <t>-cess</t>
+  </si>
+  <si>
+    <t>succès</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>-grès</t>
+  </si>
+  <si>
+    <t>-gress</t>
+  </si>
+  <si>
+    <t>progrès</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>-près</t>
+  </si>
+  <si>
+    <t>-press</t>
+  </si>
+  <si>
+    <t>exprès</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
     <t>-duit</t>
   </si>
   <si>
@@ -156,201 +377,6 @@
     <t>product</t>
   </si>
   <si>
-    <t>-eur</t>
-  </si>
-  <si>
-    <t>-or</t>
-  </si>
-  <si>
-    <t>acteur</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>-isme</t>
-  </si>
-  <si>
-    <t>-ism</t>
-  </si>
-  <si>
-    <t>capitalisme</t>
-  </si>
-  <si>
-    <t>capitalism</t>
-  </si>
-  <si>
-    <t>-iste</t>
-  </si>
-  <si>
-    <t>-ist</t>
-  </si>
-  <si>
-    <t>artiste</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>-ité</t>
-  </si>
-  <si>
-    <t>-ity</t>
-  </si>
-  <si>
-    <t>possibilité</t>
-  </si>
-  <si>
-    <t>possibility</t>
-  </si>
-  <si>
-    <t>-oire</t>
-  </si>
-  <si>
-    <t>-ory</t>
-  </si>
-  <si>
-    <t>histoire</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>-el</t>
-  </si>
-  <si>
-    <t>-al</t>
-  </si>
-  <si>
-    <t>naturel</t>
-  </si>
-  <si>
-    <t>natural</t>
-  </si>
-  <si>
-    <t>-eux</t>
-  </si>
-  <si>
-    <t>-ous</t>
-  </si>
-  <si>
-    <t>dangereux</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>-ose</t>
-  </si>
-  <si>
-    <t>verbeux</t>
-  </si>
-  <si>
-    <t>verbose</t>
-  </si>
-  <si>
-    <t>-éen</t>
-  </si>
-  <si>
-    <t>-ean</t>
-  </si>
-  <si>
-    <t>européen</t>
-  </si>
-  <si>
-    <t>European</t>
-  </si>
-  <si>
-    <t>-ide</t>
-  </si>
-  <si>
-    <t>-id</t>
-  </si>
-  <si>
-    <t>fluide</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>-ique</t>
-  </si>
-  <si>
-    <t>-ic</t>
-  </si>
-  <si>
-    <t>historique</t>
-  </si>
-  <si>
-    <t>historic</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>-ifier</t>
-  </si>
-  <si>
-    <t>-ify</t>
-  </si>
-  <si>
-    <t>simplifier</t>
-  </si>
-  <si>
-    <t>simplify</t>
-  </si>
-  <si>
-    <t>+er</t>
-  </si>
-  <si>
-    <t>-iser</t>
-  </si>
-  <si>
-    <t>-ize</t>
-  </si>
-  <si>
-    <t>organiser</t>
-  </si>
-  <si>
-    <t>organize</t>
-  </si>
-  <si>
-    <t>-cès</t>
-  </si>
-  <si>
-    <t>-cess</t>
-  </si>
-  <si>
-    <t>succès</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>-grès</t>
-  </si>
-  <si>
-    <t>-gress</t>
-  </si>
-  <si>
-    <t>progrès</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>-près</t>
-  </si>
-  <si>
-    <t>-press</t>
-  </si>
-  <si>
-    <t>exprès</t>
-  </si>
-  <si>
-    <t>express</t>
-  </si>
-  <si>
     <t>-graphie</t>
   </si>
   <si>
@@ -927,9 +953,6 @@
     <t>-tenir</t>
   </si>
   <si>
-    <t>-tain</t>
-  </si>
-  <si>
     <t>contenir</t>
   </si>
   <si>
@@ -1042,27 +1065,6 @@
   </si>
   <si>
     <t>provoke</t>
-  </si>
-  <si>
-    <t>-hérent</t>
-  </si>
-  <si>
-    <t>-herent</t>
-  </si>
-  <si>
-    <t>cohérent</t>
-  </si>
-  <si>
-    <t>coherent</t>
-  </si>
-  <si>
-    <t>-tan</t>
-  </si>
-  <si>
-    <t>métropolitain</t>
-  </si>
-  <si>
-    <t>metropolitan</t>
   </si>
 </sst>
 </file>
@@ -1682,12 +1684,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1700,7 +1702,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2260,136 +2262,136 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.23076923076923" style="2"/>
-    <col min="2" max="2" width="12.3846153846154" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.23076923076923" style="1"/>
+    <col min="2" max="2" width="12.3846153846154" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.9230769230769" customWidth="1"/>
     <col min="5" max="5" width="12.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2404,13 +2406,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.53846153846154" customWidth="1"/>
     <col min="3" max="3" width="12.2307692307692" customWidth="1"/>
@@ -2418,16 +2420,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2446,30 +2448,30 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2513,20 +2515,6 @@
       </c>
       <c r="D7" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2541,10 +2529,81 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="209" zoomScaleNormal="209" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2556,106 +2615,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>63</v>
+      <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2666,81 +2747,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView zoomScale="147" zoomScaleNormal="147" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2752,143 +2765,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>96</v>
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>108</v>
+      <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>121</v>
+      <c r="A9" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>128</v>
+      <c r="A10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2905,8 +2932,8 @@
   <sheetPr/>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2919,851 +2946,851 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
+      <c r="A2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>140</v>
+      <c r="A4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>148</v>
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>152</v>
+      <c r="A7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>156</v>
+      <c r="A8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>160</v>
+      <c r="A9" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>164</v>
+      <c r="A10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>169</v>
+      <c r="A11" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>174</v>
+      <c r="A12" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" customFormat="1" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>178</v>
+      <c r="A13" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>182</v>
+      <c r="A14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>186</v>
+      <c r="A15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>190</v>
+      <c r="A16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>193</v>
+      <c r="A17" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>197</v>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>201</v>
+    <row r="19" s="1" customFormat="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>205</v>
+      <c r="A20" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>213</v>
+      <c r="A22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>216</v>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>224</v>
+      <c r="A25" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>233</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>229</v>
+      <c r="A26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>233</v>
+      <c r="A27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>299</v>
+      <c r="A44" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>303</v>
+      <c r="A45" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>307</v>
+      <c r="A46" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="E46" s="5"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>314</v>
+      <c r="A48" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>318</v>
+      <c r="A49" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>326</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>322</v>
+      <c r="A50" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>326</v>
+      <c r="A51" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>330</v>
+      <c r="A52" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>335</v>
+      <c r="A53" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3780,69 +3807,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="141" zoomScaleNormal="141" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="7.84615384615385" customWidth="1"/>
-    <col min="2" max="2" width="8.38461538461539" customWidth="1"/>
-    <col min="3" max="3" width="14.3076923076923" customWidth="1"/>
-    <col min="4" max="4" width="13.6153846153846" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="2"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="352">
   <si>
     <t>French</t>
   </si>
@@ -587,6 +587,18 @@
     <t>confer</t>
   </si>
   <si>
+    <t>-fléchir</t>
+  </si>
+  <si>
+    <t>-flect</t>
+  </si>
+  <si>
+    <t>réfléchir</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
     <t>-finer</t>
   </si>
   <si>
@@ -863,6 +875,30 @@
     <t>inscribe</t>
   </si>
   <si>
+    <t>-server</t>
+  </si>
+  <si>
+    <t>-serve</t>
+  </si>
+  <si>
+    <t>réserver</t>
+  </si>
+  <si>
+    <t>reserve</t>
+  </si>
+  <si>
+    <t>-sécuter</t>
+  </si>
+  <si>
+    <t>-secute</t>
+  </si>
+  <si>
+    <t>persécuter</t>
+  </si>
+  <si>
+    <t>persecute</t>
+  </si>
+  <si>
     <t>-sister</t>
   </si>
   <si>
@@ -873,18 +909,6 @@
   </si>
   <si>
     <t>consist</t>
-  </si>
-  <si>
-    <t>-sécuter</t>
-  </si>
-  <si>
-    <t>-secute</t>
-  </si>
-  <si>
-    <t>persécuter</t>
-  </si>
-  <si>
-    <t>persecute</t>
   </si>
   <si>
     <t>-specter</t>
@@ -1680,7 +1704,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,9 +1725,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2408,7 +2429,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
+    <sheetView zoomScale="223" zoomScaleNormal="223" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2725,16 +2746,16 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="2" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2930,10 +2951,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A39" sqref="$A39:$XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3150,9 +3171,7 @@
       <c r="D13" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="2" t="s">
@@ -3209,22 +3228,24 @@
       <c r="A17" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18" s="2" t="s">
         <v>204</v>
       </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>205</v>
       </c>
@@ -3248,7 +3269,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>211</v>
       </c>
@@ -3264,99 +3285,97 @@
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>220</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>238</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3373,7 +3392,7 @@
         <v>242</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3389,29 +3408,29 @@
       <c r="D28" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>174</v>
+      <c r="E29" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>252</v>
       </c>
@@ -3422,7 +3441,7 @@
         <v>254</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3430,43 +3449,43 @@
         <v>255</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>261</v>
+      </c>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>261</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
@@ -3481,7 +3500,9 @@
       <c r="D34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
@@ -3496,9 +3517,7 @@
       <c r="D35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
@@ -3513,7 +3532,9 @@
       <c r="D36" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
@@ -3528,9 +3549,7 @@
       <c r="D37" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
@@ -3573,48 +3592,48 @@
       <c r="B40" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>290</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>291</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="E41" s="5" t="s">
-        <v>179</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3627,11 +3646,11 @@
       <c r="C43" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>304</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3639,39 +3658,41 @@
         <v>305</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>306</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>308</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D45" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="D45" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="E45" s="5" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>313</v>
+        <v>90</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>314</v>
@@ -3681,18 +3702,21 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>319</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3700,39 +3724,36 @@
         <v>320</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>135</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B49" s="2" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B49" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>292</v>
+      <c r="D49" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>328</v>
+        <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>329</v>
@@ -3749,14 +3770,14 @@
       <c r="B51" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3772,24 +3793,56 @@
       <c r="D52" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>339</v>
-      </c>
+      <c r="E52" s="5"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="B54" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3799,9 +3852,9 @@
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940" activeTab="6"/>
+    <workbookView windowWidth="29140" windowHeight="13940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="360">
   <si>
     <t>French</t>
   </si>
@@ -329,6 +329,66 @@
     <t>actually</t>
   </si>
   <si>
+    <t>-graphie</t>
+  </si>
+  <si>
+    <t>-graphy</t>
+  </si>
+  <si>
+    <t>géographie</t>
+  </si>
+  <si>
+    <t>geography</t>
+  </si>
+  <si>
+    <t>-monie</t>
+  </si>
+  <si>
+    <t>-mony</t>
+  </si>
+  <si>
+    <t>harmonie</t>
+  </si>
+  <si>
+    <t>harmony</t>
+  </si>
+  <si>
+    <t>-métrie</t>
+  </si>
+  <si>
+    <t>-metry</t>
+  </si>
+  <si>
+    <t>géométrie</t>
+  </si>
+  <si>
+    <t>geometry</t>
+  </si>
+  <si>
+    <t>-ologie</t>
+  </si>
+  <si>
+    <t>-ology</t>
+  </si>
+  <si>
+    <t>biologie</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>-jonction</t>
+  </si>
+  <si>
+    <t>-junction</t>
+  </si>
+  <si>
+    <t>conjonction</t>
+  </si>
+  <si>
+    <t>conjunction</t>
+  </si>
+  <si>
     <t>-cès</t>
   </si>
   <si>
@@ -365,6 +425,18 @@
     <t>express</t>
   </si>
   <si>
+    <t>-cours</t>
+  </si>
+  <si>
+    <t>-course</t>
+  </si>
+  <si>
+    <t>discours</t>
+  </si>
+  <si>
+    <t>discourse</t>
+  </si>
+  <si>
     <t>-duit</t>
   </si>
   <si>
@@ -377,66 +449,6 @@
     <t>product</t>
   </si>
   <si>
-    <t>-graphie</t>
-  </si>
-  <si>
-    <t>-graphy</t>
-  </si>
-  <si>
-    <t>géographie</t>
-  </si>
-  <si>
-    <t>geography</t>
-  </si>
-  <si>
-    <t>-monie</t>
-  </si>
-  <si>
-    <t>-mony</t>
-  </si>
-  <si>
-    <t>harmonie</t>
-  </si>
-  <si>
-    <t>harmony</t>
-  </si>
-  <si>
-    <t>-métrie</t>
-  </si>
-  <si>
-    <t>-metry</t>
-  </si>
-  <si>
-    <t>géométrie</t>
-  </si>
-  <si>
-    <t>geometry</t>
-  </si>
-  <si>
-    <t>-ologie</t>
-  </si>
-  <si>
-    <t>-ology</t>
-  </si>
-  <si>
-    <t>biologie</t>
-  </si>
-  <si>
-    <t>biology</t>
-  </si>
-  <si>
-    <t>-jonction</t>
-  </si>
-  <si>
-    <t>-junction</t>
-  </si>
-  <si>
-    <t>conjonction</t>
-  </si>
-  <si>
-    <t>conjunction</t>
-  </si>
-  <si>
     <t>-trait</t>
   </si>
   <si>
@@ -519,6 +531,18 @@
   </si>
   <si>
     <t>conclude</t>
+  </si>
+  <si>
+    <t>-courir</t>
+  </si>
+  <si>
+    <t>-cur</t>
+  </si>
+  <si>
+    <t>concourir</t>
+  </si>
+  <si>
+    <t>concur</t>
   </si>
   <si>
     <t>-couvrir</t>
@@ -2771,10 +2795,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+      <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2800,16 +2824,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2823,7 +2847,7 @@
       <c r="C3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2837,49 +2861,49 @@
       <c r="C4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2893,7 +2917,7 @@
       <c r="C8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2907,21 +2931,21 @@
       <c r="C9" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2937,6 +2961,20 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2951,10 +2989,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A39" sqref="$A39:$XFD39"/>
+    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2985,865 +3023,880 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>174</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>191</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" customFormat="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>208</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>220</v>
+      <c r="A22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>224</v>
+      <c r="A23" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>237</v>
+      <c r="A26" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>174</v>
+        <v>258</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>255</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C33" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>269</v>
+      </c>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>265</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>174</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>283</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>300</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>306</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>319</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>317</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D49" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+      <c r="E48" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D49" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>300</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E52" s="5"/>
+        <v>340</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>142</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>347</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>142</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3852,9 +3905,9 @@
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/fr/fr-affix.xlsx
+++ b/fr/fr-affix.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29140" windowHeight="13940" activeTab="5"/>
+    <workbookView windowWidth="29140" windowHeight="13940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="prefix" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="368">
   <si>
     <t>French</t>
   </si>
@@ -623,6 +623,18 @@
     <t>reflect</t>
   </si>
   <si>
+    <t>-fliger</t>
+  </si>
+  <si>
+    <t>-flict</t>
+  </si>
+  <si>
+    <t>affliger</t>
+  </si>
+  <si>
+    <t>afflict</t>
+  </si>
+  <si>
     <t>-finer</t>
   </si>
   <si>
@@ -861,6 +873,18 @@
   </si>
   <si>
     <t>impulse</t>
+  </si>
+  <si>
+    <t>-puter</t>
+  </si>
+  <si>
+    <t>-pute</t>
+  </si>
+  <si>
+    <t>disputer</t>
+  </si>
+  <si>
+    <t>dispute</t>
   </si>
   <si>
     <t>-riger</t>
@@ -1728,11 +1752,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2479,16 +2506,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2507,58 +2534,58 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2603,36 +2630,36 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2688,28 +2715,28 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2728,30 +2755,30 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2797,7 +2824,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
+    <sheetView zoomScale="251" zoomScaleNormal="251" workbookViewId="0">
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2824,58 +2851,58 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2883,7 +2910,7 @@
       <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -2908,13 +2935,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2922,13 +2949,13 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2936,16 +2963,16 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2989,10 +3016,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView zoomScale="188" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="188" zoomScaleNormal="188" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -3034,7 +3061,7 @@
       <c r="D2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3049,7 +3076,7 @@
       <c r="D3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -3064,7 +3091,7 @@
       <c r="D4" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3079,7 +3106,7 @@
       <c r="D5" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3096,7 +3123,7 @@
       <c r="D6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3113,7 +3140,7 @@
       <c r="D7" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
@@ -3128,7 +3155,7 @@
       <c r="D8" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
@@ -3143,7 +3170,7 @@
       <c r="D9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
@@ -3158,7 +3185,7 @@
       <c r="D10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
@@ -3173,7 +3200,7 @@
       <c r="D11" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3190,7 +3217,7 @@
       <c r="D12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3207,7 +3234,7 @@
       <c r="D13" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3224,13 +3251,13 @@
       <c r="D14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" customFormat="1" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3239,9 +3266,7 @@
       <c r="D15" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="1" spans="1:5">
       <c r="A16" s="2" t="s">
@@ -3256,7 +3281,7 @@
       <c r="D16" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3273,7 +3298,7 @@
       <c r="D17" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3290,7 +3315,7 @@
       <c r="D18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3298,29 +3323,31 @@
       <c r="A19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
+        <v>215</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>217</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="2" t="s">
@@ -3335,9 +3362,9 @@
       <c r="D21" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>223</v>
       </c>
@@ -3350,102 +3377,100 @@
       <c r="D22" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>238</v>
+      </c>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3461,8 +3486,8 @@
       <c r="D29" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>246</v>
+      <c r="E29" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3479,28 +3504,28 @@
         <v>258</v>
       </c>
       <c r="E30" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>261</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>182</v>
+      <c r="E31" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>263</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>264</v>
       </c>
@@ -3510,8 +3535,8 @@
       <c r="D32" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>146</v>
+      <c r="E32" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3519,43 +3544,43 @@
         <v>267</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="C33" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C34" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>273</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
@@ -3570,7 +3595,9 @@
       <c r="D36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
@@ -3585,9 +3612,7 @@
       <c r="D37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>182</v>
-      </c>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
@@ -3602,7 +3627,7 @@
       <c r="D38" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
@@ -3617,8 +3642,8 @@
       <c r="D39" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>146</v>
+      <c r="E39" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3634,9 +3659,7 @@
       <c r="D40" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
@@ -3651,7 +3674,7 @@
       <c r="D41" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3668,7 +3691,7 @@
       <c r="D42" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3679,48 +3702,48 @@
       <c r="B43" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>308</v>
+      <c r="E43" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>187</v>
+      <c r="E44" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3733,11 +3756,11 @@
       <c r="C46" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>246</v>
+      <c r="E46" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3745,39 +3768,41 @@
         <v>321</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E47" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D48" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>146</v>
+      <c r="D48" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>330</v>
@@ -3785,20 +3810,23 @@
       <c r="D49" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>335</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3806,39 +3834,36 @@
         <v>336</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>139</v>
+        <v>337</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>308</v>
+      <c r="D52" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>345</v>
@@ -3846,7 +3871,7 @@
       <c r="D53" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
@@ -3855,14 +3880,14 @@
       <c r="B54" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>146</v>
+      <c r="E54" s="6" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3878,24 +3903,56 @@
       <c r="D55" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>355</v>
-      </c>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="B57" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3905,9 +3962,9 @@
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
